--- a/index/parteien_listen.xlsx
+++ b/index/parteien_listen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jan.Eggers@hr.de/Nextcloud2/hr-DDJ/projekte/ltwhe23/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB51E90A-4222-3842-8BA6-9B5014FCB2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAC863B-54A7-614F-86EC-05A990A74816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22440" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,23 +166,29 @@
     <t>Volt Deutschland</t>
   </si>
   <si>
-    <t>BUNDESPA. KLIMALISTE</t>
-  </si>
-  <si>
-    <t>Klimaliste Deutschland</t>
-  </si>
-  <si>
     <t>Verjüngungsforschung</t>
+  </si>
+  <si>
+    <t>KLIMALISTE WÄHLERL.</t>
+  </si>
+  <si>
+    <t>Wählerliste Klimaliste Hessen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,8 +214,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -509,10 +516,14 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -687,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -808,17 +819,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
